--- a/Inputs/ECUSpecs.xlsx
+++ b/Inputs/ECUSpecs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmc-my.sharepoint-mil.us/personal/deryk_l_clary_mil_usmc_mil/Documents/Documents/VS Code/1. Air Conditioners/Inputs/XLS Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmc-my.sharepoint-mil.us/personal/deryk_l_clary_mil_usmc_mil/Documents/Documents/VS Code/1. Air Conditioners/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{119B4761-BC1C-411D-80A4-A6DC2720C6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2586C56C-4A96-49B5-9E04-EAD45C933CBC}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{119B4761-BC1C-411D-80A4-A6DC2720C6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19562F0D-D24C-4BE5-B6F1-537A969544A0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15510" xr2:uid="{60A86E40-7E2F-4C45-AF44-FF6C3ADE04BA}"/>
+    <workbookView xWindow="30045" yWindow="1845" windowWidth="21600" windowHeight="11070" xr2:uid="{60A86E40-7E2F-4C45-AF44-FF6C3ADE04BA}"/>
   </bookViews>
   <sheets>
     <sheet name="ECUSpecs" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The maximum BTU/hr capacity</t>
+The maximum BTU/hr capacity
+Using "@ 125 degrees" metrics.</t>
         </r>
       </text>
     </comment>
@@ -131,11 +132,36 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The maximum amount of electrical load produced by the unit.</t>
+The maximum amount of electrical load produced by the unit.
+Using "@ 125 degrees" metrics.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CA22DA69-A337-4697-92E5-7140B25277EF}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7753F88A-6B92-4534-9A04-E48E9C287715}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clary Capt Deryk L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Power draw when heating in kilowatts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CA22DA69-A337-4697-92E5-7140B25277EF}">
       <text>
         <r>
           <rPr>
@@ -160,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2941FCA1-3989-4B87-A58C-A2FC5F222FF8}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2941FCA1-3989-4B87-A58C-A2FC5F222FF8}">
       <text>
         <r>
           <rPr>
@@ -184,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{777B2B46-B229-402A-817B-98DB020B0070}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{777B2B46-B229-402A-817B-98DB020B0070}">
       <text>
         <r>
           <rPr>
@@ -208,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{497D20C6-4D05-463C-A46C-20AA7191D1C0}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{497D20C6-4D05-463C-A46C-20AA7191D1C0}">
       <text>
         <r>
           <rPr>
@@ -233,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{8CCC2C55-8BF5-4015-B126-BD278BA5DAA1}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8CCC2C55-8BF5-4015-B126-BD278BA5DAA1}">
       <text>
         <r>
           <rPr>
@@ -258,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{83EBB1B7-07E1-47A4-9C08-CE3DC04175EA}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{83EBB1B7-07E1-47A4-9C08-CE3DC04175EA}">
       <text>
         <r>
           <rPr>
@@ -282,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{05336B23-4DF5-4899-8869-5570723A3FD4}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{05336B23-4DF5-4899-8869-5570723A3FD4}">
       <text>
         <r>
           <rPr>
@@ -306,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FC3D57EC-E239-4FB0-BF44-4EBEB7EC975D}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{FC3D57EC-E239-4FB0-BF44-4EBEB7EC975D}">
       <text>
         <r>
           <rPr>
@@ -359,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Unit (ECU)</t>
   </si>
@@ -407,6 +433,9 @@
   </si>
   <si>
     <t>Cooling Load (KW)</t>
+  </si>
+  <si>
+    <t>Heating Load (KW)</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EEEBF1-4309-4F37-B65A-956648DAA7CF}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,14 +1365,15 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,157 +1387,169 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>60000</v>
+        <v>54200</v>
       </c>
       <c r="C2" s="2">
-        <v>37000</v>
+        <v>37100</v>
       </c>
       <c r="D2" s="2">
-        <v>12.9</v>
+        <v>12.231999999999999</v>
       </c>
       <c r="E2" s="2">
+        <v>12.646000000000001</v>
+      </c>
+      <c r="F2" s="2">
         <v>20251</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>560</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>48.4</v>
       </c>
-      <c r="H2" s="2" t="b">
+      <c r="I2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
-        <f>E2/B2</f>
-        <v>0.33751666666666669</v>
-      </c>
       <c r="J2" s="3">
+        <f>F2/B2</f>
+        <v>0.37363468634686348</v>
+      </c>
+      <c r="K2" s="3">
         <f>D2/B2</f>
-        <v>2.1499999999999999E-4</v>
-      </c>
-      <c r="K2" s="3">
+        <v>2.2568265682656826E-4</v>
+      </c>
+      <c r="L2" s="3">
+        <f>H2/B2</f>
+        <v>8.9298892988929886E-4</v>
+      </c>
+      <c r="M2" s="4">
         <f>G2/B2</f>
-        <v>8.0666666666666669E-4</v>
-      </c>
-      <c r="L2" s="4">
-        <f>F2/B2</f>
-        <v>9.3333333333333341E-3</v>
+        <v>1.0332103321033211E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>36000</v>
+        <v>34100</v>
       </c>
       <c r="C3" s="2">
         <v>31000</v>
       </c>
       <c r="D3" s="2">
-        <v>7.7</v>
+        <v>7.0380000000000003</v>
       </c>
       <c r="E3" s="2">
+        <v>10.371</v>
+      </c>
+      <c r="F3" s="2">
         <v>15092</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>472</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>43.3</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="I3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <f>E3/B3</f>
-        <v>0.41922222222222222</v>
-      </c>
       <c r="J3" s="3">
+        <f>F3/B3</f>
+        <v>0.44258064516129031</v>
+      </c>
+      <c r="K3" s="3">
         <f>D3/B3</f>
-        <v>2.138888888888889E-4</v>
-      </c>
-      <c r="K3" s="3">
+        <v>2.0639296187683286E-4</v>
+      </c>
+      <c r="L3" s="3">
+        <f>H3/B3</f>
+        <v>1.2697947214076245E-3</v>
+      </c>
+      <c r="M3" s="4">
         <f>G3/B3</f>
-        <v>1.2027777777777777E-3</v>
-      </c>
-      <c r="L3" s="4">
-        <f>F3/B3</f>
-        <v>1.3111111111111112E-2</v>
+        <v>1.3841642228739003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="C4" s="2">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="D4" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.9050000000000002</v>
       </c>
       <c r="E4" s="2">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="F4" s="2">
         <v>10020.66</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>230</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
-        <f>E4/B4</f>
-        <v>0.55670333333333333</v>
-      </c>
       <c r="J4" s="3">
+        <f>F4/B4</f>
+        <v>0.54165729729729728</v>
+      </c>
+      <c r="K4" s="3">
         <f>D4/B4</f>
-        <v>2.833333333333333E-4</v>
-      </c>
-      <c r="K4" s="3">
+        <v>2.6513513513513513E-4</v>
+      </c>
+      <c r="L4" s="3">
+        <f>H4/B4</f>
+        <v>5.2432432432432429E-4</v>
+      </c>
+      <c r="M4" s="4">
         <f>G4/B4</f>
-        <v>5.3888888888888888E-4</v>
-      </c>
-      <c r="L4" s="4">
-        <f>F4/B4</f>
-        <v>1.2777777777777779E-2</v>
+        <v>1.2432432432432432E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1521,31 +1563,34 @@
         <v>21.1</v>
       </c>
       <c r="E5" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="F5" s="2">
         <v>22000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>540</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>30.18</v>
       </c>
-      <c r="H5" s="2" t="b">
+      <c r="I5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <f>E5/B5</f>
+      <c r="J5" s="3">
+        <f>F5/B5</f>
         <v>0.30555555555555558</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f>D5/B5</f>
         <v>2.9305555555555557E-4</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
+        <f>H5/B5</f>
+        <v>4.1916666666666665E-4</v>
+      </c>
+      <c r="M5" s="4">
         <f>G5/B5</f>
-        <v>4.1916666666666665E-4</v>
-      </c>
-      <c r="L5" s="4">
-        <f>F5/B5</f>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
